--- a/biology/Neurosciences/L'Ordre_étrange_des_choses/L'Ordre_étrange_des_choses.xlsx
+++ b/biology/Neurosciences/L'Ordre_étrange_des_choses/L'Ordre_étrange_des_choses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Ordre_%C3%A9trange_des_choses</t>
+          <t>L'Ordre_étrange_des_choses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Ordre étrange des choses (A Estranha Ordem das Coisas) est un essai écrit par Antonio Damasio en 2017.
-« L'homéostasie est le fondement de la vie biologique et socio-culturelle humaine »[1],[2].
+« L'homéostasie est le fondement de la vie biologique et socio-culturelle humaine »,.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Ordre_%C3%A9trange_des_choses</t>
+          <t>L'Ordre_étrange_des_choses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Le thème de l'essai</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du fait de notre système nerveux complexe, Antonio Damasio ajoute à l'homéostasie biologique (celle qui maintient en vie) une homéostasie des sentiments se manifestant par des expériences mentales exprimant une valeur. Tout cela enrichi par la présence de la conscience, du langage, de la mémoire et de l'imagination.
 Pour lui, cette homéostasie particulière est le fondement de la vie socio-culturelle.
